--- a/raw/Q/2. cleaning procedure.xlsx
+++ b/raw/Q/2. cleaning procedure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f418f1b765393aa/Documents/Research/PhD/3. Chapters/5. Studying a data game/1. Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\raw\Q\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{83521AFB-0613-430E-B705-FD969D3AD17C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E866645-DCB7-4536-92F5-FB1D8B386D7A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478598EC-C498-4935-BE85-556F1CA261C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="1365" windowWidth="20640" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4890" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data cleaning procedure" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="1550">
   <si>
     <t>StartDate</t>
   </si>
@@ -4685,9 +4685,6 @@
   </si>
   <si>
     <t>Removed pilot data by given name (e.g., myself, family or friends: colored red)</t>
-  </si>
-  <si>
-    <t>n removed</t>
   </si>
 </sst>
 </file>
@@ -4838,9 +4835,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5626,13 +5622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DT227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -5651,8 +5645,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>1550</v>
+      <c r="A1" s="12" t="str">
+        <f>"Total: " &amp; COUNT(B4:B227)</f>
+        <v>Total: 224</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6025,9 +6020,9 @@
       </c>
     </row>
     <row r="2" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <f>COUNTIF(A4:A227, TRUE)</f>
-        <v>27</v>
+      <c r="A2" s="11" t="str">
+        <f>"Removed: " &amp; COUNTIF(A4:A227, TRUE)</f>
+        <v>Removed: 27</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
